--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.8046563266744489</v>
+        <v>9.8046563210599444</v>
       </c>
       <c r="C2">
-        <v>12.598770186855146</v>
+        <v>12.598770176730632</v>
       </c>
       <c r="D2">
-        <v>17.587372753329156</v>
+        <v>17.587372773603914</v>
       </c>
       <c r="E2">
-        <v>10.29483950757202</v>
+        <v>10.294839507495926</v>
       </c>
       <c r="F2">
-        <v>11.243023021657832</v>
+        <v>11.243023008938192</v>
       </c>
       <c r="G2">
-        <v>11.693838576988483</v>
+        <v>11.69383857346428</v>
       </c>
       <c r="H2">
-        <v>16.610677699386105</v>
+        <v>16.610677675755642</v>
       </c>
       <c r="I2">
-        <v>16.098142075438403</v>
+        <v>16.098142077834204</v>
       </c>
       <c r="J2">
-        <v>16.381338329195845</v>
+        <v>16.381338299644256</v>
       </c>
       <c r="K2">
-        <v>14.360888744059178</v>
+        <v>14.360888740551033</v>
       </c>
       <c r="L2">
-        <v>22.961544357575093</v>
+        <v>22.961544335892341</v>
       </c>
       <c r="M2">
-        <v>9.1384266669369865</v>
+        <v>9.1384266650233883</v>
       </c>
       <c r="N2">
-        <v>15.352256510880816</v>
+        <v>15.352256510624903</v>
       </c>
       <c r="O2">
-        <v>11.244096314537352</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="P2">
-        <v>21.021042017117978</v>
+        <v>21.02104194285905</v>
       </c>
       <c r="Q2">
-        <v>14.709216795954358</v>
+        <v>14.709216795944764</v>
       </c>
       <c r="R2">
-        <v>15.451267895178496</v>
+        <v>15.45126789602924</v>
       </c>
       <c r="S2">
-        <v>14.481622662139005</v>
+        <v>14.481622660243513</v>
       </c>
       <c r="T2">
-        <v>17.975001186739227</v>
+        <v>17.975001186644896</v>
       </c>
       <c r="U2">
-        <v>13.237325743907933</v>
+        <v>13.237325731413623</v>
       </c>
       <c r="V2">
-        <v>20.257427468797481</v>
+        <v>20.257427471417792</v>
       </c>
       <c r="W2">
-        <v>21.222036295899152</v>
+        <v>21.222036295571687</v>
       </c>
       <c r="X2">
-        <v>14.414172856165134</v>
+        <v>14.414172856030389</v>
       </c>
       <c r="Y2">
-        <v>10.576605766007876</v>
+        <v>10.576605758792574</v>
       </c>
       <c r="Z2">
-        <v>16.926722971662997</v>
+        <v>16.926722972703622</v>
       </c>
       <c r="AA2">
-        <v>11.462676158301454</v>
+        <v>11.462676182724039</v>
       </c>
       <c r="AB2">
-        <v>16.114934030259448</v>
+        <v>16.114934028022994</v>
       </c>
       <c r="AC2">
-        <v>16.601787143985757</v>
+        <v>16.601787131007121</v>
       </c>
       <c r="AD2">
-        <v>11.799082888482232</v>
+        <v>11.799082887383841</v>
       </c>
       <c r="AE2">
-        <v>11.505514512091231</v>
+        <v>11.505514510266345</v>
       </c>
       <c r="AF2">
-        <v>15.111779634533445</v>
+        <v>15.111779633883058</v>
       </c>
       <c r="AG2">
-        <v>9.8973238686155707</v>
+        <v>9.8973238679369917</v>
       </c>
       <c r="AH2">
-        <v>17.837863000826694</v>
+        <v>17.837862993335399</v>
       </c>
       <c r="AI2">
-        <v>16.548171257302009</v>
+        <v>16.548171265227339</v>
       </c>
       <c r="AJ2">
-        <v>21.474953011677599</v>
+        <v>21.474953012665694</v>
       </c>
       <c r="AK2">
-        <v>15.862173577755863</v>
+        <v>15.862173571472736</v>
       </c>
       <c r="AL2">
-        <v>7.9908555070962057</v>
+        <v>7.9908555073753158</v>
       </c>
       <c r="AM2">
-        <v>16.538415852598636</v>
+        <v>16.538415849785867</v>
       </c>
       <c r="AN2">
-        <v>9.5787373350534644</v>
+        <v>9.5787373311681314</v>
       </c>
       <c r="AO2">
-        <v>21.471929994455422</v>
+        <v>21.471929996147757</v>
       </c>
       <c r="AP2">
-        <v>16.859203830186075</v>
+        <v>16.859203825737211</v>
       </c>
       <c r="AQ2">
-        <v>14.5249844407872</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="AR2">
-        <v>10.577764585510142</v>
+        <v>10.577764580830882</v>
       </c>
       <c r="AS2">
-        <v>14.788854760827162</v>
+        <v>14.788854760400525</v>
       </c>
       <c r="AT2">
-        <v>7.5368160239581812</v>
+        <v>7.5368160235867885</v>
       </c>
       <c r="AU2">
-        <v>18.292896223594397</v>
+        <v>18.29289622263294</v>
       </c>
       <c r="AV2">
-        <v>17.291078575814684</v>
+        <v>17.291078575779867</v>
       </c>
       <c r="AW2">
-        <v>19.704625713613936</v>
+        <v>19.704625714551799</v>
       </c>
       <c r="AX2">
-        <v>8.2021022370769039</v>
+        <v>8.2021022372343921</v>
       </c>
       <c r="AY2">
-        <v>16.834191048539743</v>
+        <v>16.834191048254318</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>12.806800964289778</v>
       </c>
       <c r="C3">
-        <v>15.574305313581853</v>
+        <v>15.574305332503044</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>13.869973522497123</v>
       </c>
       <c r="E3">
-        <v>6.5939940867124074</v>
+        <v>6.5939940869544689</v>
       </c>
       <c r="F3">
-        <v>17.27126146808623</v>
+        <v>17.271261466777403</v>
       </c>
       <c r="G3">
-        <v>11.128376327029695</v>
+        <v>11.128376326970642</v>
       </c>
       <c r="H3">
-        <v>11.406807854670841</v>
+        <v>11.406807852869626</v>
       </c>
       <c r="I3">
-        <v>12.083458938309445</v>
+        <v>12.083458926035284</v>
       </c>
       <c r="J3">
-        <v>9.9589660763247974</v>
+        <v>9.958965960144873</v>
       </c>
       <c r="K3">
-        <v>8.8634510891543279</v>
+        <v>8.8634510892121732</v>
       </c>
       <c r="L3">
-        <v>14.368875133402872</v>
+        <v>14.368875133370846</v>
       </c>
       <c r="M3">
-        <v>10.44463398797806</v>
+        <v>10.444613257296819</v>
       </c>
       <c r="N3">
-        <v>13.789052626615444</v>
+        <v>13.789052625451081</v>
       </c>
       <c r="O3">
-        <v>14.183602957123558</v>
+        <v>14.183602956895417</v>
       </c>
       <c r="P3">
-        <v>16.280238317196435</v>
+        <v>16.280238318985589</v>
       </c>
       <c r="Q3">
-        <v>14.162878342410586</v>
+        <v>14.1628783397825</v>
       </c>
       <c r="R3">
-        <v>16.767375635077755</v>
+        <v>16.767375630554049</v>
       </c>
       <c r="S3">
-        <v>14.955406551193562</v>
+        <v>14.955406550178541</v>
       </c>
       <c r="T3">
-        <v>16.325383259166482</v>
+        <v>16.32538325418945</v>
       </c>
       <c r="U3">
-        <v>15.156029569177726</v>
+        <v>15.156029567683131</v>
       </c>
       <c r="V3">
-        <v>21.306158429124778</v>
+        <v>21.306158429265082</v>
       </c>
       <c r="W3">
-        <v>19.04328030798176</v>
+        <v>19.043280310249791</v>
       </c>
       <c r="X3">
-        <v>16.090656381267124</v>
+        <v>16.09065637851235</v>
       </c>
       <c r="Y3">
-        <v>11.499025003513577</v>
+        <v>11.499024999636626</v>
       </c>
       <c r="Z3">
-        <v>13.77720243026949</v>
+        <v>13.777202432306208</v>
       </c>
       <c r="AA3">
-        <v>13.500412765911568</v>
+        <v>13.50041276301117</v>
       </c>
       <c r="AB3">
-        <v>8.5475723315281975</v>
+        <v>8.5475723480457884</v>
       </c>
       <c r="AC3">
-        <v>10.552463679069467</v>
+        <v>10.552463678507815</v>
       </c>
       <c r="AD3">
-        <v>8.3203225829550931</v>
+        <v>8.3203226599526499</v>
       </c>
       <c r="AE3">
-        <v>14.14992594937338</v>
+        <v>14.149925945531983</v>
       </c>
       <c r="AF3">
-        <v>10.02498171700881</v>
+        <v>10.024981713431911</v>
       </c>
       <c r="AG3">
-        <v>16.773653179136893</v>
+        <v>16.773653112579879</v>
       </c>
       <c r="AH3">
-        <v>7.7440585693192219</v>
+        <v>7.7440585693295416</v>
       </c>
       <c r="AI3">
-        <v>5.7205796530633242</v>
+        <v>5.7205793070072088</v>
       </c>
       <c r="AJ3">
-        <v>10.894751771260255</v>
+        <v>10.894751772508362</v>
       </c>
       <c r="AK3">
-        <v>10.519356552775648</v>
+        <v>10.519356552405698</v>
       </c>
       <c r="AL3">
-        <v>14.42963898494726</v>
+        <v>14.429638972570119</v>
       </c>
       <c r="AM3">
-        <v>13.407086188450389</v>
+        <v>13.407086188382625</v>
       </c>
       <c r="AN3">
-        <v>16.883912656314756</v>
+        <v>16.883912654814388</v>
       </c>
       <c r="AO3">
-        <v>14.595709971570773</v>
+        <v>14.595709973045295</v>
       </c>
       <c r="AP3">
-        <v>13.546983207461587</v>
+        <v>13.546983207098307</v>
       </c>
       <c r="AQ3">
-        <v>19.675522342141299</v>
+        <v>19.675522311672282</v>
       </c>
       <c r="AR3">
-        <v>13.869521375953552</v>
+        <v>13.869521368964945</v>
       </c>
       <c r="AS3">
-        <v>17.47203424000412</v>
+        <v>17.472034240252931</v>
       </c>
       <c r="AT3">
-        <v>13.291993089996748</v>
+        <v>13.291993090040158</v>
       </c>
       <c r="AU3">
-        <v>22.380947694554578</v>
+        <v>22.380947694875534</v>
       </c>
       <c r="AV3">
-        <v>15.112167991159753</v>
+        <v>15.112167990967098</v>
       </c>
       <c r="AW3">
-        <v>10.567875722149946</v>
+        <v>10.567875722269056</v>
       </c>
       <c r="AX3">
-        <v>19.590908647862264</v>
+        <v>19.590908647181795</v>
       </c>
       <c r="AY3">
-        <v>12.165876291978559</v>
+        <v>12.1658762910387</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.8046563210599444</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.598770176730632</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.587372773603914</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10.294839507495926</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.243023008938192</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.69383857346428</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16.610677675755642</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.098142077834204</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.381338299644256</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.360888740551033</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>22.961544335892341</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.1384266650233883</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.352256510624903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.244096314590454</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.02104194285905</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.709216795944764</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.45126789602924</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.481622660243513</v>
+        <v>16.797539711911419</v>
       </c>
       <c r="T2">
         <v>17.975001186644896</v>
@@ -573,7 +462,7 @@
         <v>13.237325731413623</v>
       </c>
       <c r="V2">
-        <v>20.257427471417792</v>
+        <v>20.179813921914679</v>
       </c>
       <c r="W2">
         <v>21.222036295571687</v>
@@ -588,55 +477,55 @@
         <v>16.926722972703622</v>
       </c>
       <c r="AA2">
-        <v>11.462676182724039</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>16.114934028022994</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>16.601787131007121</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>11.799082887383841</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.505514510266345</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15.111779633883058</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.8973238679369917</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>17.837862993335399</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.548171265227339</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>21.474953012665694</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>15.862173571472736</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.9908555073753158</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>16.538415849785867</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.5787373311681314</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>21.471929996147757</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>16.859203825737211</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>14.524984440938098</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>10.577764580830882</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>12.806800964289778</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>15.574305332503044</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.869973522497123</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.5939940869544689</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.271261466777403</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.128376326970642</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>11.406807852869626</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.083458926035284</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.958965960144873</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.8634510892121732</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.368875133370846</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.444613257296819</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.789052625451081</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.183602956895417</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.280238318985589</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.1628783397825</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16.767375630554049</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.955406550178541</v>
@@ -743,55 +629,55 @@
         <v>13.777202432306208</v>
       </c>
       <c r="AA3">
-        <v>13.50041276301117</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.5475723480457884</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.552463678507815</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.3203226599526499</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.149925945531983</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.024981713431911</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>16.773653112579879</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.7440585693295416</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.7205793070072088</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.894751772508362</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>10.519356552405698</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.429638972570119</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.407086188382625</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>16.883912654814388</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.595709973045295</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>13.546983207098307</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>19.675522311672282</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.869521368964945</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.8046563266744489</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="C2">
-        <v>13.453292862752919</v>
+        <v>15.45126789602924</v>
       </c>
       <c r="D2">
-        <v>17.587372753329156</v>
+        <v>9.4304240103828096</v>
       </c>
       <c r="E2">
-        <v>10.232427370681471</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="F2">
         <v>10.124516721581676</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>14.207823722985925</v>
       </c>
       <c r="C3">
-        <v>15.574305313581853</v>
+        <v>16.513892442244266</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>16.832541100581402</v>
       </c>
       <c r="E3">
-        <v>6.5939940867124074</v>
+        <v>15.615825002300481</v>
       </c>
       <c r="F3">
         <v>17.201053162438988</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.8046563266744489</v>
+        <v>15.847008530260693</v>
       </c>
       <c r="C2">
-        <v>13.453292862752919</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="D2">
-        <v>17.587372753329156</v>
+        <v>16.214735093701755</v>
       </c>
       <c r="E2">
-        <v>10.232427370681471</v>
+        <v>9.4304240103828096</v>
       </c>
       <c r="F2">
         <v>10.124516721581676</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>13.525050225365455</v>
       </c>
       <c r="C3">
-        <v>15.574305313581853</v>
+        <v>14.207823722985925</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>13.407086188382625</v>
       </c>
       <c r="E3">
-        <v>6.7377376851569117</v>
+        <v>16.832541100581402</v>
       </c>
       <c r="F3">
         <v>17.201053162438988</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.8046563210599444</v>
+      </c>
+      <c r="C2">
+        <v>13.453292869436345</v>
+      </c>
+      <c r="D2">
+        <v>17.587372773603914</v>
+      </c>
+      <c r="E2">
+        <v>10.232427370824315</v>
+      </c>
+      <c r="F2">
+        <v>10.124516721985938</v>
+      </c>
+      <c r="G2">
+        <v>10.354293543260477</v>
+      </c>
+      <c r="H2">
+        <v>16.610677675755642</v>
+      </c>
+      <c r="I2">
+        <v>14.858150705261917</v>
+      </c>
+      <c r="J2">
+        <v>16.381338299644256</v>
+      </c>
+      <c r="K2">
+        <v>14.360888740551033</v>
+      </c>
+      <c r="L2">
+        <v>22.283956906594572</v>
+      </c>
+      <c r="M2">
+        <v>9.5293509376193501</v>
+      </c>
+      <c r="N2">
         <v>15.847008530260693</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.244096314590454</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.844023610060407</v>
+      </c>
+      <c r="Q2">
+        <v>14.709216795944764</v>
+      </c>
+      <c r="R2">
+        <v>15.45126789602924</v>
+      </c>
+      <c r="T2">
+        <v>17.651694253800446</v>
+      </c>
+      <c r="U2">
+        <v>13.237325731413623</v>
+      </c>
+      <c r="V2">
+        <v>19.19666041373749</v>
+      </c>
+      <c r="W2">
+        <v>21.222036295571687</v>
+      </c>
+      <c r="X2">
+        <v>14.414172856030389</v>
+      </c>
+      <c r="Y2">
+        <v>10.364065484811317</v>
+      </c>
+      <c r="Z2">
+        <v>16.695179973369612</v>
+      </c>
+      <c r="AA2">
+        <v>11.462676182724039</v>
+      </c>
+      <c r="AB2">
+        <v>16.031813080694782</v>
+      </c>
+      <c r="AC2">
+        <v>16.202545982828493</v>
+      </c>
+      <c r="AD2">
+        <v>11.677661416421195</v>
+      </c>
+      <c r="AE2">
+        <v>11.37487491259553</v>
+      </c>
+      <c r="AF2">
+        <v>14.900576650389699</v>
+      </c>
+      <c r="AG2">
+        <v>9.8973238679369917</v>
+      </c>
+      <c r="AH2">
+        <v>17.234947499348458</v>
+      </c>
+      <c r="AI2">
+        <v>16.548171265227339</v>
+      </c>
+      <c r="AJ2">
+        <v>21.307786953567295</v>
+      </c>
+      <c r="AK2">
+        <v>15.653943204497166</v>
+      </c>
+      <c r="AL2">
+        <v>7.9586561529067374</v>
+      </c>
+      <c r="AM2">
         <v>16.214735093701755</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>9.4304240103828096</v>
       </c>
-      <c r="F2">
-        <v>10.124516721581676</v>
-      </c>
-      <c r="G2">
-        <v>10.354293543349915</v>
-      </c>
-      <c r="H2">
-        <v>16.610677699386105</v>
-      </c>
-      <c r="I2">
-        <v>14.858150705344565</v>
-      </c>
-      <c r="J2">
-        <v>16.381338329195845</v>
-      </c>
-      <c r="K2">
-        <v>14.360888744059178</v>
-      </c>
-      <c r="L2">
-        <v>22.283956935948687</v>
-      </c>
-      <c r="M2">
-        <v>9.5293509375403254</v>
-      </c>
-      <c r="N2">
-        <v>15.847008530775501</v>
-      </c>
-      <c r="O2">
-        <v>11.244096314537352</v>
-      </c>
-      <c r="P2">
-        <v>20.844023620231699</v>
-      </c>
-      <c r="Q2">
-        <v>14.709216795954358</v>
-      </c>
-      <c r="R2">
-        <v>15.451267895178496</v>
-      </c>
-      <c r="T2">
-        <v>17.651694253711732</v>
-      </c>
-      <c r="U2">
-        <v>13.237325743907933</v>
-      </c>
-      <c r="V2">
-        <v>19.196660414284512</v>
-      </c>
-      <c r="W2">
-        <v>21.222036295899152</v>
-      </c>
-      <c r="X2">
-        <v>14.414172856165134</v>
-      </c>
-      <c r="Y2">
-        <v>10.364065484751912</v>
-      </c>
-      <c r="Z2">
-        <v>16.695179973305724</v>
-      </c>
-      <c r="AA2">
-        <v>11.462676158301454</v>
-      </c>
-      <c r="AB2">
-        <v>16.031813080696516</v>
-      </c>
-      <c r="AC2">
-        <v>16.202545982527674</v>
-      </c>
-      <c r="AD2">
-        <v>11.677661416460506</v>
-      </c>
-      <c r="AE2">
-        <v>11.374874912470624</v>
-      </c>
-      <c r="AF2">
-        <v>14.900576650174575</v>
-      </c>
-      <c r="AG2">
-        <v>9.8973238686155707</v>
-      </c>
-      <c r="AH2">
-        <v>17.234947499595116</v>
-      </c>
-      <c r="AI2">
-        <v>16.548171257302009</v>
-      </c>
-      <c r="AJ2">
-        <v>21.30778695349882</v>
-      </c>
-      <c r="AK2">
-        <v>15.653943204354373</v>
-      </c>
-      <c r="AL2">
-        <v>7.9586561529614386</v>
-      </c>
-      <c r="AM2">
-        <v>16.21473509378924</v>
-      </c>
-      <c r="AN2">
-        <v>9.4304240105165231</v>
-      </c>
       <c r="AO2">
-        <v>21.355015547690741</v>
+        <v>21.355015547571323</v>
       </c>
       <c r="AP2">
-        <v>16.001809964657721</v>
+        <v>16.001809964681122</v>
       </c>
       <c r="AQ2">
-        <v>14.5249844407872</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="AR2">
-        <v>10.175857614494511</v>
+        <v>10.175857614096874</v>
       </c>
       <c r="AS2">
-        <v>14.788854760827162</v>
+        <v>14.788854760400525</v>
       </c>
       <c r="AT2">
-        <v>7.5109890044072074</v>
+        <v>7.5109890043642551</v>
       </c>
       <c r="AU2">
-        <v>20.67311047083879</v>
+        <v>20.673110461830532</v>
       </c>
       <c r="AV2">
-        <v>17.182702390965737</v>
+        <v>17.182702390868954</v>
       </c>
       <c r="AW2">
-        <v>19.486860671217894</v>
+        <v>19.486860671190357</v>
       </c>
       <c r="AX2">
-        <v>8.2021022370769039</v>
+        <v>8.2021022372343921</v>
       </c>
       <c r="AY2">
-        <v>16.783696969016958</v>
+        <v>16.783696969105581</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>12.806800964289778</v>
+      </c>
+      <c r="C3">
+        <v>15.574305332503044</v>
+      </c>
+      <c r="D3">
+        <v>13.869973522497123</v>
+      </c>
+      <c r="E3">
+        <v>6.7377376643162306</v>
+      </c>
+      <c r="F3">
+        <v>17.20105316240695</v>
+      </c>
+      <c r="G3">
+        <v>11.128376326970642</v>
+      </c>
+      <c r="H3">
+        <v>10.934313728689652</v>
+      </c>
+      <c r="I3">
+        <v>12.083458926035284</v>
+      </c>
+      <c r="J3">
+        <v>9.958965960144873</v>
+      </c>
+      <c r="K3">
+        <v>9.3505795722510605</v>
+      </c>
+      <c r="L3">
+        <v>14.349616845164459</v>
+      </c>
+      <c r="M3">
+        <v>11.849828117680225</v>
+      </c>
+      <c r="N3">
         <v>13.525050225365455</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>14.207823722985925</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.197140635448296</v>
+      </c>
+      <c r="Q3">
+        <v>14.1628783397825</v>
+      </c>
+      <c r="R3">
+        <v>16.513892442244266</v>
+      </c>
+      <c r="S3">
+        <v>14.955406550178541</v>
+      </c>
+      <c r="T3">
+        <v>15.844723329491384</v>
+      </c>
+      <c r="U3">
+        <v>14.722658729987655</v>
+      </c>
+      <c r="V3">
+        <v>20.900271414226587</v>
+      </c>
+      <c r="W3">
+        <v>19.043280310249791</v>
+      </c>
+      <c r="X3">
+        <v>16.036737225510251</v>
+      </c>
+      <c r="Y3">
+        <v>11.335498643652006</v>
+      </c>
+      <c r="Z3">
+        <v>13.581116827647238</v>
+      </c>
+      <c r="AA3">
+        <v>13.440384764539932</v>
+      </c>
+      <c r="AB3">
+        <v>8.5475723480457884</v>
+      </c>
+      <c r="AC3">
+        <v>10.420089473372821</v>
+      </c>
+      <c r="AD3">
+        <v>8.3203226599526499</v>
+      </c>
+      <c r="AE3">
+        <v>13.964257968957732</v>
+      </c>
+      <c r="AF3">
+        <v>9.9422640102015123</v>
+      </c>
+      <c r="AG3">
+        <v>16.294901692910273</v>
+      </c>
+      <c r="AH3">
+        <v>7.7440585693295416</v>
+      </c>
+      <c r="AI3">
+        <v>9.8863088799417884</v>
+      </c>
+      <c r="AJ3">
+        <v>10.829887615515052</v>
+      </c>
+      <c r="AK3">
+        <v>10.479282082795596</v>
+      </c>
+      <c r="AL3">
+        <v>14.241742222765218</v>
+      </c>
+      <c r="AM3">
         <v>13.407086188382625</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>16.832541100581402</v>
       </c>
-      <c r="F3">
-        <v>17.201053162438988</v>
-      </c>
-      <c r="G3">
-        <v>11.128376327029695</v>
-      </c>
-      <c r="H3">
-        <v>10.93431372860298</v>
-      </c>
-      <c r="I3">
-        <v>12.083458938309445</v>
-      </c>
-      <c r="J3">
-        <v>9.9589660763247974</v>
-      </c>
-      <c r="K3">
-        <v>9.3505795722735616</v>
-      </c>
-      <c r="L3">
-        <v>14.34961684517577</v>
-      </c>
-      <c r="M3">
-        <v>11.850057559443234</v>
-      </c>
-      <c r="N3">
-        <v>13.525050225357264</v>
-      </c>
-      <c r="O3">
-        <v>14.207823724038033</v>
-      </c>
-      <c r="P3">
-        <v>16.197140635446274</v>
-      </c>
-      <c r="Q3">
-        <v>14.162878342410586</v>
-      </c>
-      <c r="R3">
-        <v>16.513892442174118</v>
-      </c>
-      <c r="S3">
-        <v>14.955406551193562</v>
-      </c>
-      <c r="T3">
-        <v>15.84472332952183</v>
-      </c>
-      <c r="U3">
-        <v>14.722658729754066</v>
-      </c>
-      <c r="V3">
-        <v>20.900271414828104</v>
-      </c>
-      <c r="W3">
-        <v>19.04328030798176</v>
-      </c>
-      <c r="X3">
-        <v>16.036737225463995</v>
-      </c>
-      <c r="Y3">
-        <v>11.335498643620685</v>
-      </c>
-      <c r="Z3">
-        <v>13.581116827671327</v>
-      </c>
-      <c r="AA3">
-        <v>13.440384764497942</v>
-      </c>
-      <c r="AB3">
-        <v>8.5475723315281975</v>
-      </c>
-      <c r="AC3">
-        <v>10.420089473631492</v>
-      </c>
-      <c r="AD3">
-        <v>8.3203225829550931</v>
-      </c>
-      <c r="AE3">
-        <v>13.964257968856018</v>
-      </c>
-      <c r="AF3">
-        <v>9.9422640102204625</v>
-      </c>
-      <c r="AG3">
-        <v>16.294901693064361</v>
-      </c>
-      <c r="AH3">
-        <v>7.7440585693192219</v>
-      </c>
-      <c r="AI3">
-        <v>9.8863088906694312</v>
-      </c>
-      <c r="AJ3">
-        <v>10.829887615420052</v>
-      </c>
-      <c r="AK3">
-        <v>10.479282082876312</v>
-      </c>
-      <c r="AL3">
-        <v>14.241742222676034</v>
-      </c>
-      <c r="AM3">
-        <v>13.407086188450389</v>
-      </c>
-      <c r="AN3">
-        <v>16.832541100696634</v>
-      </c>
       <c r="AO3">
-        <v>14.535529955742287</v>
+        <v>14.535529956158623</v>
       </c>
       <c r="AP3">
-        <v>13.546983207461587</v>
+        <v>13.546983207098307</v>
       </c>
       <c r="AQ3">
-        <v>15.615825002280435</v>
+        <v>15.615825002300481</v>
       </c>
       <c r="AR3">
-        <v>13.869521375953552</v>
+        <v>13.869521368964945</v>
       </c>
       <c r="AS3">
-        <v>17.421988513406813</v>
+        <v>17.421988513416245</v>
       </c>
       <c r="AT3">
-        <v>13.291993089996748</v>
+        <v>13.291993090040158</v>
       </c>
       <c r="AU3">
-        <v>21.368135856875377</v>
+        <v>21.368135856918254</v>
       </c>
       <c r="AV3">
-        <v>15.112167991159753</v>
+        <v>15.112167990967098</v>
       </c>
       <c r="AW3">
-        <v>10.549798792355823</v>
+        <v>10.549798792504099</v>
       </c>
       <c r="AX3">
-        <v>19.590908647862264</v>
+        <v>19.590908647181795</v>
       </c>
       <c r="AY3">
-        <v>12.165876291978559</v>
+        <v>12.1658762910387</v>
       </c>
     </row>
   </sheetData>
